--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика) Session8.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика) Session8.xlsx
@@ -19,7 +19,7 @@
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="126">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t xml:space="preserve">Violation(%) </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Интенсивность в тесте</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1281,17 +1287,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1570,7 +1565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1643,40 +1638,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1692,23 +1687,22 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="88"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="88"/>
   </cellXfs>
   <cellStyles count="102">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1814,27 +1808,69 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2009,7 +2045,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Aleksandra" refreshedDate="44962.174884953703" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Aleksandra" refreshedDate="44965.026466898147" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2595,7 +2631,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2674,25 +2710,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2775,21 +2811,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="12">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2798,7 +2834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2807,7 +2843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2816,7 +2852,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3093,7 +3129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3101,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,15 +3158,21 @@
     <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3191,21 +3233,27 @@
       <c r="V1" s="34" t="s">
         <v>50</v>
       </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
       <c r="X1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="68">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70">
+      <c r="C2" s="67">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69">
         <f t="shared" ref="D2:D30" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -3239,6 +3287,7 @@
         <v>5</v>
       </c>
       <c r="O2" s="63">
+        <f t="shared" ref="O2:O4" si="1">P2-N2</f>
         <v>35</v>
       </c>
       <c r="P2" s="64">
@@ -3251,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="19">
-        <f t="shared" ref="S2:S7" si="1">60/(Q2)</f>
+        <f t="shared" ref="S2:S7" si="2">60/(Q2)</f>
         <v>0.967741935483871</v>
       </c>
       <c r="T2" s="22">
@@ -3262,25 +3311,31 @@
         <v>58</v>
       </c>
       <c r="V2" s="35">
-        <f t="shared" ref="V2:V7" si="2">R2/W$2</f>
+        <f t="shared" ref="V2:V7" si="3">R2/W$2</f>
         <v>0.3</v>
       </c>
       <c r="W2">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="66">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68">
-        <v>1</v>
-      </c>
-      <c r="D3" s="71">
+      <c r="C3" s="67">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3293,7 +3348,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G3:G18" si="4">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H3" s="20">
@@ -3314,6 +3369,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="63">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="P3" s="64">
@@ -3326,49 +3382,55 @@
         <v>2</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="T3" s="22">
         <v>20</v>
       </c>
       <c r="U3" s="23">
-        <f>ROUND(R3*S3*T3,0)</f>
+        <f t="shared" ref="U3:U7" si="5">ROUND(R3*S3*T3,0)</f>
         <v>24</v>
       </c>
       <c r="V3" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="68">
-        <v>1</v>
-      </c>
-      <c r="D4" s="71">
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E4:E19" si="6">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
         <v>62</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F16" si="5">60/E4*C4</f>
+        <f t="shared" ref="F4:F16" si="7">60/E4*C4</f>
         <v>0.967741935483871</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H18" si="6">D4*F4*G4</f>
+        <f t="shared" ref="H4:H18" si="8">D4*F4*G4</f>
         <v>58.064516129032256</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -3385,6 +3447,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="63">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P4" s="64">
@@ -3397,49 +3460,55 @@
         <v>2</v>
       </c>
       <c r="S4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="T4" s="22">
         <v>20</v>
       </c>
       <c r="U4" s="23">
-        <f>ROUND(R4*S4*T4,0)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71">
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="5"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.064516129032256</v>
       </c>
       <c r="I5" s="17" t="s">
@@ -3456,6 +3525,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="63">
+        <f>P5-N5</f>
         <v>25</v>
       </c>
       <c r="P5" s="64">
@@ -3468,49 +3538,55 @@
         <v>1</v>
       </c>
       <c r="S5" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
-        <f>ROUND(R5*S5*T5,0)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="V5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="66">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="68">
-        <v>1</v>
-      </c>
-      <c r="D6" s="71">
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="5"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.064516129032256</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -3527,6 +3603,7 @@
         <v>3</v>
       </c>
       <c r="O6" s="63">
+        <f t="shared" ref="O6:O7" si="9">P6-N6</f>
         <v>10</v>
       </c>
       <c r="P6" s="64">
@@ -3539,49 +3616,55 @@
         <v>1</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="T6" s="22">
         <v>20</v>
       </c>
       <c r="U6" s="23">
-        <f>ROUND(R6*S6*T6,0)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="V6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="68">
-        <v>1</v>
-      </c>
-      <c r="D7" s="71">
+      <c r="C7" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="5"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.064516129032256</v>
       </c>
       <c r="I7" s="17" t="s">
@@ -3597,7 +3680,8 @@
       <c r="N7" s="24">
         <v>2</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="63">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="P7" s="20">
@@ -3610,32 +3694,38 @@
         <v>1</v>
       </c>
       <c r="S7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="T7" s="22">
         <v>20</v>
       </c>
       <c r="U7" s="23">
-        <f>SUM(U2:U6)</f>
-        <v>157</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="V7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="68">
-        <v>1</v>
-      </c>
-      <c r="D8" s="71">
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3644,11 +3734,11 @@
         <v>62</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H8" s="20">
@@ -3662,39 +3752,39 @@
         <v>92.973607038123163</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="V8" s="67">
+      <c r="V8" s="66">
         <f>SUM(V2:V7)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="68">
-        <v>1</v>
-      </c>
-      <c r="D9" s="69">
+      <c r="C9" s="67">
+        <v>1</v>
+      </c>
+      <c r="D9" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9" s="20">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="5"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.064516129032256</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -3705,7 +3795,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -3724,15 +3814,15 @@
         <v>100</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -3742,7 +3832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
@@ -3757,19 +3847,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="20">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I11" s="17" t="s">
@@ -3779,7 +3869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -3794,19 +3884,19 @@
         <v>2</v>
       </c>
       <c r="E12" s="20">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I12" s="17" t="s">
@@ -3816,7 +3906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -3831,15 +3921,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="20">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F13" s="21">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H13" s="20">
@@ -3853,7 +3943,7 @@
         <v>105.64346349745331</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>61</v>
       </c>
@@ -3868,19 +3958,19 @@
         <v>2</v>
       </c>
       <c r="E14" s="20">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -3890,7 +3980,7 @@
         <v>974.71708597005716</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
@@ -3905,23 +3995,23 @@
         <v>2</v>
       </c>
       <c r="E15" s="20">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>61</v>
       </c>
@@ -3936,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="20">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
@@ -3966,16 +4056,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E30" si="7">VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
+      <c r="E17" s="20">
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" ref="F17:F30" si="8">60/E17*C17</f>
+        <f t="shared" ref="F17:F30" si="10">60/E17*C17</f>
         <v>0.8</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H17" s="20">
@@ -3990,27 +4080,27 @@
       <c r="B18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="68">
-        <v>1</v>
-      </c>
-      <c r="D18" s="70">
+      <c r="C18" s="67">
+        <v>1</v>
+      </c>
+      <c r="D18" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="7"/>
+      <c r="E18" s="20">
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="F18" s="21">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -4021,27 +4111,27 @@
       <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="68">
-        <v>1</v>
-      </c>
-      <c r="D19" s="71">
+      <c r="C19" s="67">
+        <v>1</v>
+      </c>
+      <c r="D19" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="7"/>
+      <c r="E19" s="20">
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G30" si="9">VLOOKUP(A19,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G19:G30" si="11">VLOOKUP(A19,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" ref="H19:H26" si="10">D19*F19*G19</f>
+        <f t="shared" ref="H19:H26" si="12">D19*F19*G19</f>
         <v>16</v>
       </c>
     </row>
@@ -4055,24 +4145,24 @@
       <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E17:E30" si="13">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
         <v>75</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -4083,27 +4173,27 @@
       <c r="B21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="68">
-        <v>1</v>
-      </c>
-      <c r="D21" s="71">
+      <c r="C21" s="67">
+        <v>1</v>
+      </c>
+      <c r="D21" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -4122,19 +4212,19 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4153,19 +4243,19 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4184,19 +4274,19 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4215,19 +4305,19 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4246,19 +4336,19 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4277,19 +4367,19 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" ref="H27:H30" si="11">D27*F27*G27</f>
+        <f t="shared" ref="H27:H30" si="14">D27*F27*G27</f>
         <v>31.578947368421055</v>
       </c>
     </row>
@@ -4308,19 +4398,19 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="G28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4339,19 +4429,19 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4370,19 +4460,19 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="G30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4425,7 +4515,7 @@
         <v>open_site</v>
       </c>
       <c r="G33" s="58">
-        <f t="shared" ref="G33:G44" si="12">C34/3</f>
+        <f t="shared" ref="G33:G44" si="15">C34/3</f>
         <v>172.5525544065442</v>
       </c>
       <c r="H33" s="48">
@@ -4433,7 +4523,7 @@
         <v>164</v>
       </c>
       <c r="I33" s="26">
-        <f t="shared" ref="I33:I44" si="13">1-G33/H33</f>
+        <f t="shared" ref="I33:I44" si="16">1-G33/H33</f>
         <v>-5.214972199112311E-2</v>
       </c>
     </row>
@@ -4458,7 +4548,7 @@
         <v>login</v>
       </c>
       <c r="G34" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>140.5525544065442</v>
       </c>
       <c r="H34" s="48">
@@ -4466,7 +4556,7 @@
         <v>131</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.2920262645375544E-2</v>
       </c>
     </row>
@@ -4491,7 +4581,7 @@
         <v>search_flights_button</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>105.64346349745331</v>
       </c>
       <c r="H35" s="48">
@@ -4499,7 +4589,7 @@
         <v>96</v>
       </c>
       <c r="I35" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.10045274476513866</v>
       </c>
     </row>
@@ -4524,7 +4614,7 @@
         <v>choose_ticket</v>
       </c>
       <c r="G36" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>89.643463497453311</v>
       </c>
       <c r="H36" s="48">
@@ -4532,7 +4622,7 @@
         <v>79</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.13472738604371282</v>
       </c>
     </row>
@@ -4544,11 +4634,11 @@
         <v>282</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" ref="C37:C45" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
+        <f t="shared" ref="C37:C45" si="17">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
         <v>268.93039049235995</v>
       </c>
       <c r="D37" s="51">
-        <f t="shared" ref="D37:D46" si="15">1-B37/C37</f>
+        <f t="shared" ref="D37:D46" si="18">1-B37/C37</f>
         <v>-4.8598484848484835E-2</v>
       </c>
       <c r="E37" s="53"/>
@@ -4557,7 +4647,7 @@
         <v>choose_time_of_flight</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>89.643463497453311</v>
       </c>
       <c r="H37" s="48">
@@ -4565,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="I37" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.13472738604371282</v>
       </c>
     </row>
@@ -4577,11 +4667,11 @@
         <v>270</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>268.93039049235995</v>
       </c>
       <c r="D38" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.9772727272726627E-3</v>
       </c>
       <c r="E38" s="53"/>
@@ -4590,7 +4680,7 @@
         <v>payment</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>58.064516129032256</v>
       </c>
       <c r="H38" s="48">
@@ -4598,7 +4688,7 @@
         <v>52</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.11662531017369715</v>
       </c>
     </row>
@@ -4610,20 +4700,20 @@
         <v>175</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>174.19354838709677</v>
       </c>
       <c r="D39" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-4.6296296296297612E-3</v>
       </c>
-      <c r="E39" s="66"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="52" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>itinerary</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>92.973607038123149</v>
       </c>
       <c r="H39" s="48">
@@ -4631,7 +4721,7 @@
         <v>85</v>
       </c>
       <c r="I39" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-9.3807141624978163E-2</v>
       </c>
     </row>
@@ -4643,11 +4733,11 @@
         <v>280</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>278.92082111436946</v>
       </c>
       <c r="D40" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.8691227184795007E-3</v>
       </c>
       <c r="E40" s="53"/>
@@ -4656,7 +4746,7 @@
         <v>delete_booking</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="H40" s="48">
@@ -4664,7 +4754,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.3478260869565188E-2</v>
       </c>
     </row>
@@ -4676,11 +4766,11 @@
         <v>73</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="D41" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.388888888888884E-2</v>
       </c>
       <c r="E41" s="53"/>
@@ -4689,7 +4779,7 @@
         <v>logout</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>105.64346349745331</v>
       </c>
       <c r="H41" s="48">
@@ -4697,7 +4787,7 @@
         <v>94</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.12386663295163092</v>
       </c>
     </row>
@@ -4709,11 +4799,11 @@
         <v>326</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>316.93039049235995</v>
       </c>
       <c r="D42" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.8617039513156639E-2</v>
       </c>
       <c r="E42" s="53"/>
@@ -4722,7 +4812,7 @@
         <v>sign_up_button</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="H42" s="48">
@@ -4742,11 +4832,11 @@
         <v>97</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="D43" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E43" s="53"/>
@@ -4755,7 +4845,7 @@
         <v>profile_fill</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="H43" s="48">
@@ -4763,7 +4853,7 @@
         <v>32</v>
       </c>
       <c r="I43" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4775,11 +4865,11 @@
         <v>97</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="D44" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0416666666666741E-2</v>
       </c>
       <c r="E44" s="53"/>
@@ -4788,7 +4878,7 @@
         <v>after_reg</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="H44" s="48">
@@ -4796,7 +4886,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4808,11 +4898,11 @@
         <v>97</v>
       </c>
       <c r="C45" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="D45" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
@@ -4829,7 +4919,7 @@
         <v>2924.1512579101714</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.7878643541900985E-3</v>
       </c>
       <c r="I46" s="32"/>
@@ -4966,7 +5056,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G52" s="20">
-        <f t="shared" ref="G52:G54" si="16">ROUND(F52,0)</f>
+        <f t="shared" ref="G52:G54" si="19">ROUND(F52,0)</f>
         <v>1</v>
       </c>
       <c r="H52" s="20">
@@ -5001,7 +5091,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H53" s="20">
@@ -5036,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H54" s="20">
@@ -5085,14 +5175,14 @@
         <v>46</v>
       </c>
       <c r="E58" s="20">
-        <f t="shared" ref="E58:E83" si="17">60/D59</f>
+        <f t="shared" ref="E58:E83" si="20">60/D59</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" s="20">
-        <f t="shared" ref="G58:G83" si="18">C59*E58*F58</f>
+        <f t="shared" ref="G58:G83" si="21">C59*E58*F58</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I58" s="17" t="s">
@@ -5118,14 +5208,14 @@
         <v>57</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F59">
         <v>20</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I59" s="17" t="s">
@@ -5143,22 +5233,22 @@
         <v>67</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" ref="C60:C84" si="19">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
+        <f t="shared" ref="C60:C84" si="22">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D84" si="20">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
+        <f t="shared" ref="D60:D84" si="23">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E60" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I60" s="17" t="s">
@@ -5176,22 +5266,22 @@
         <v>91</v>
       </c>
       <c r="C61" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D61">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="E61" s="20">
         <f t="shared" si="20"/>
-        <v>57</v>
-      </c>
-      <c r="E61" s="20">
-        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F61">
         <v>20</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I61" s="62" t="s">
@@ -5209,22 +5299,22 @@
         <v>92</v>
       </c>
       <c r="C62" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D62">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="E62" s="20">
         <f t="shared" si="20"/>
-        <v>57</v>
-      </c>
-      <c r="E62" s="20">
-        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F62">
         <v>20</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I62" s="62" t="s">
@@ -5242,22 +5332,22 @@
         <v>93</v>
       </c>
       <c r="C63" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D63">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="E63" s="20">
         <f t="shared" si="20"/>
-        <v>57</v>
-      </c>
-      <c r="E63" s="20">
-        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="17" t="s">
@@ -5275,22 +5365,22 @@
         <v>94</v>
       </c>
       <c r="C64" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D64">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="E64" s="20">
         <f t="shared" si="20"/>
-        <v>57</v>
-      </c>
-      <c r="E64" s="20">
-        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I64" s="62" t="s">
@@ -5308,22 +5398,22 @@
         <v>95</v>
       </c>
       <c r="C65" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D65">
+        <f t="shared" si="23"/>
+        <v>57</v>
+      </c>
+      <c r="E65" s="20">
         <f t="shared" si="20"/>
-        <v>57</v>
-      </c>
-      <c r="E65" s="20">
-        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I65" s="17" t="s">
@@ -5341,22 +5431,22 @@
         <v>90</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D66">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="E66" s="20">
         <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="E66" s="20">
-        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I66" s="62" t="s">
@@ -5374,22 +5464,22 @@
         <v>67</v>
       </c>
       <c r="C67" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D67">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="E67" s="20">
         <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="E67" s="20">
-        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="I67" s="17" t="s">
@@ -5407,22 +5497,22 @@
         <v>95</v>
       </c>
       <c r="C68" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D68">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="E68" s="20">
         <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="E68" s="20">
-        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -5434,22 +5524,22 @@
         <v>90</v>
       </c>
       <c r="C69" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D69">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E69" s="20">
         <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="E69" s="20">
-        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -5461,22 +5551,22 @@
         <v>67</v>
       </c>
       <c r="C70" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D70">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E70" s="20">
         <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="E70" s="20">
-        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -5488,22 +5578,22 @@
         <v>97</v>
       </c>
       <c r="C71" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D71">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E71" s="20">
         <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="E71" s="20">
-        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -5515,22 +5605,22 @@
         <v>98</v>
       </c>
       <c r="C72" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D72">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E72" s="20">
         <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="E72" s="20">
-        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -5542,22 +5632,22 @@
         <v>95</v>
       </c>
       <c r="C73" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D73">
+        <f t="shared" si="23"/>
+        <v>115</v>
+      </c>
+      <c r="E73" s="20">
         <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="E73" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5569,22 +5659,22 @@
         <v>90</v>
       </c>
       <c r="C74" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D74">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E74" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E74" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5596,22 +5686,22 @@
         <v>90</v>
       </c>
       <c r="C75" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D75">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E75" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E75" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5623,22 +5713,22 @@
         <v>67</v>
       </c>
       <c r="C76" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D76">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E76" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E76" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5650,22 +5740,22 @@
         <v>91</v>
       </c>
       <c r="C77" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D77">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E77" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E77" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5677,22 +5767,22 @@
         <v>92</v>
       </c>
       <c r="C78" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D78">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E78" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E78" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5704,22 +5794,22 @@
         <v>93</v>
       </c>
       <c r="C79" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D79">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E79" s="20">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E79" s="20">
-        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
@@ -5731,22 +5821,22 @@
         <v>95</v>
       </c>
       <c r="C80" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D80">
+        <f t="shared" si="23"/>
+        <v>180</v>
+      </c>
+      <c r="E80" s="20" t="e">
         <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="E80" s="20" t="e">
-        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
       <c r="G80" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5758,22 +5848,22 @@
         <v>90</v>
       </c>
       <c r="C81" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="20" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="20" t="e">
-        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
       <c r="G81" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5785,22 +5875,22 @@
         <v>67</v>
       </c>
       <c r="C82" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="20" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="20" t="e">
-        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5812,22 +5902,22 @@
         <v>97</v>
       </c>
       <c r="C83" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="20" t="e">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="20" t="e">
-        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
       <c r="G83" s="20" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5839,11 +5929,11 @@
         <v>95</v>
       </c>
       <c r="C84" s="20" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5997,7 +6087,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6006,642 +6096,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="71" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="75">
-        <v>0</v>
-      </c>
-      <c r="D2" s="75">
-        <v>0</v>
-      </c>
-      <c r="E2" s="75">
+      <c r="C2" s="71">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71">
+        <v>0</v>
+      </c>
+      <c r="E2" s="71">
         <v>1.768</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="71">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="71">
         <v>1.663</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="71">
         <v>160</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="71">
         <v>6</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="75">
-        <v>0</v>
-      </c>
-      <c r="D3" s="75">
-        <v>0</v>
-      </c>
-      <c r="E3" s="75">
+      <c r="C3" s="71">
+        <v>0</v>
+      </c>
+      <c r="D3" s="71">
+        <v>0</v>
+      </c>
+      <c r="E3" s="71">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="71">
         <v>1.9E-2</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="71">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="71">
         <v>32</v>
       </c>
-      <c r="I3" s="75">
-        <v>0</v>
-      </c>
-      <c r="J3" s="75">
+      <c r="I3" s="71">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="75">
-        <v>0</v>
-      </c>
-      <c r="D4" s="75">
-        <v>0</v>
-      </c>
-      <c r="E4" s="75">
+      <c r="C4" s="71">
+        <v>0</v>
+      </c>
+      <c r="D4" s="71">
+        <v>0</v>
+      </c>
+      <c r="E4" s="71">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="71">
         <v>1.6E-2</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="71">
         <v>0.158</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="71">
         <v>79</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="71">
         <v>2</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="75">
-        <v>0</v>
-      </c>
-      <c r="D5" s="75">
-        <v>0</v>
-      </c>
-      <c r="E5" s="75">
+      <c r="C5" s="71">
+        <v>0</v>
+      </c>
+      <c r="D5" s="71">
+        <v>0</v>
+      </c>
+      <c r="E5" s="71">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="71">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="71">
         <v>0.161</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="71">
         <v>79</v>
       </c>
-      <c r="I5" s="75">
-        <v>0</v>
-      </c>
-      <c r="J5" s="75">
+      <c r="I5" s="71">
+        <v>0</v>
+      </c>
+      <c r="J5" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="75">
-        <v>0</v>
-      </c>
-      <c r="D6" s="75">
-        <v>0</v>
-      </c>
-      <c r="E6" s="75">
+      <c r="C6" s="71">
+        <v>0</v>
+      </c>
+      <c r="D6" s="71">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="71">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="71">
         <v>0.159</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="71">
         <v>23</v>
       </c>
-      <c r="I6" s="75">
-        <v>0</v>
-      </c>
-      <c r="J6" s="75">
+      <c r="I6" s="71">
+        <v>0</v>
+      </c>
+      <c r="J6" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="75">
-        <v>0</v>
-      </c>
-      <c r="D7" s="75">
-        <v>0</v>
-      </c>
-      <c r="E7" s="75">
+      <c r="C7" s="71">
+        <v>0</v>
+      </c>
+      <c r="D7" s="71">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71">
         <v>0.377</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="71">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="71">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="71">
         <v>85</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="71">
         <v>2</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="75">
-        <v>0</v>
-      </c>
-      <c r="D8" s="75">
-        <v>0</v>
-      </c>
-      <c r="E8" s="75">
+      <c r="C8" s="71">
+        <v>0</v>
+      </c>
+      <c r="D8" s="71">
+        <v>0</v>
+      </c>
+      <c r="E8" s="71">
         <v>0.35099999999999998</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="71">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="71">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="71">
         <v>131</v>
       </c>
-      <c r="I8" s="75">
-        <v>1</v>
-      </c>
-      <c r="J8" s="75">
+      <c r="I8" s="71">
+        <v>1</v>
+      </c>
+      <c r="J8" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="75">
-        <v>0</v>
-      </c>
-      <c r="D9" s="75">
-        <v>0</v>
-      </c>
-      <c r="E9" s="75">
+      <c r="C9" s="71">
+        <v>0</v>
+      </c>
+      <c r="D9" s="71">
+        <v>0</v>
+      </c>
+      <c r="E9" s="71">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="71">
         <v>1.2E-2</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="71">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="71">
         <v>94</v>
       </c>
-      <c r="I9" s="75">
-        <v>0</v>
-      </c>
-      <c r="J9" s="75">
+      <c r="I9" s="71">
+        <v>0</v>
+      </c>
+      <c r="J9" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="75">
-        <v>0</v>
-      </c>
-      <c r="D10" s="75">
-        <v>0</v>
-      </c>
-      <c r="E10" s="75">
+      <c r="C10" s="71">
+        <v>0</v>
+      </c>
+      <c r="D10" s="71">
+        <v>0</v>
+      </c>
+      <c r="E10" s="71">
         <v>0.253</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="71">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="71">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="71">
         <v>164</v>
       </c>
-      <c r="I10" s="75">
-        <v>0</v>
-      </c>
-      <c r="J10" s="75">
+      <c r="I10" s="71">
+        <v>0</v>
+      </c>
+      <c r="J10" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="75">
-        <v>0</v>
-      </c>
-      <c r="D11" s="75">
-        <v>0</v>
-      </c>
-      <c r="E11" s="75">
+      <c r="C11" s="71">
+        <v>0</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0</v>
+      </c>
+      <c r="E11" s="71">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="71">
         <v>0.01</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="71">
         <v>0.158</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="71">
         <v>52</v>
       </c>
-      <c r="I11" s="75">
-        <v>1</v>
-      </c>
-      <c r="J11" s="75">
+      <c r="I11" s="71">
+        <v>1</v>
+      </c>
+      <c r="J11" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="75">
-        <v>0</v>
-      </c>
-      <c r="D12" s="75">
-        <v>0</v>
-      </c>
-      <c r="E12" s="75">
+      <c r="C12" s="71">
+        <v>0</v>
+      </c>
+      <c r="D12" s="71">
+        <v>0</v>
+      </c>
+      <c r="E12" s="71">
         <v>0.18</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="71">
         <v>1.4E-2</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="71">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="71">
         <v>32</v>
       </c>
-      <c r="I12" s="75">
-        <v>0</v>
-      </c>
-      <c r="J12" s="75">
+      <c r="I12" s="71">
+        <v>0</v>
+      </c>
+      <c r="J12" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="75">
-        <v>0</v>
-      </c>
-      <c r="D13" s="75">
-        <v>0</v>
-      </c>
-      <c r="E13" s="75">
+      <c r="C13" s="71">
+        <v>0</v>
+      </c>
+      <c r="D13" s="71">
+        <v>0</v>
+      </c>
+      <c r="E13" s="71">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="71">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="71">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="71">
         <v>96</v>
       </c>
-      <c r="I13" s="75">
-        <v>0</v>
-      </c>
-      <c r="J13" s="75">
+      <c r="I13" s="71">
+        <v>0</v>
+      </c>
+      <c r="J13" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="75">
-        <v>0</v>
-      </c>
-      <c r="D14" s="75">
-        <v>0</v>
-      </c>
-      <c r="E14" s="75">
+      <c r="C14" s="71">
+        <v>0</v>
+      </c>
+      <c r="D14" s="71">
+        <v>0</v>
+      </c>
+      <c r="E14" s="71">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="71">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="71">
         <v>0.14099999999999999</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="71">
         <v>32</v>
       </c>
-      <c r="I14" s="75">
-        <v>0</v>
-      </c>
-      <c r="J14" s="75">
+      <c r="I14" s="71">
+        <v>0</v>
+      </c>
+      <c r="J14" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="75">
-        <v>0</v>
-      </c>
-      <c r="D15" s="75">
-        <v>0</v>
-      </c>
-      <c r="E15" s="75">
+      <c r="C15" s="71">
+        <v>0</v>
+      </c>
+      <c r="D15" s="71">
+        <v>0</v>
+      </c>
+      <c r="E15" s="71">
         <v>1.0289999999999999</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="71">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="71">
         <v>0.998</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="71">
         <v>16</v>
       </c>
-      <c r="I15" s="75">
-        <v>0</v>
-      </c>
-      <c r="J15" s="75">
+      <c r="I15" s="71">
+        <v>0</v>
+      </c>
+      <c r="J15" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="75">
-        <v>0</v>
-      </c>
-      <c r="D16" s="75">
-        <v>0</v>
-      </c>
-      <c r="E16" s="75">
+      <c r="C16" s="71">
+        <v>0</v>
+      </c>
+      <c r="D16" s="71">
+        <v>0</v>
+      </c>
+      <c r="E16" s="71">
         <v>1.359</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="71">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="71">
         <v>1.306</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="71">
         <v>26</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="71">
         <v>2</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="75">
-        <v>0</v>
-      </c>
-      <c r="D17" s="75">
-        <v>0</v>
-      </c>
-      <c r="E17" s="75">
+      <c r="C17" s="71">
+        <v>0</v>
+      </c>
+      <c r="D17" s="71">
+        <v>0</v>
+      </c>
+      <c r="E17" s="71">
         <v>1.768</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="71">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="71">
         <v>1.7110000000000001</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="71">
         <v>52</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="71">
         <v>3</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="75">
-        <v>0</v>
-      </c>
-      <c r="D18" s="75">
-        <v>0</v>
-      </c>
-      <c r="E18" s="75">
+      <c r="C18" s="71">
+        <v>0</v>
+      </c>
+      <c r="D18" s="71">
+        <v>0</v>
+      </c>
+      <c r="E18" s="71">
         <v>0.86299999999999999</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="71">
         <v>4.7E-2</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="71">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="71">
         <v>11</v>
       </c>
-      <c r="I18" s="75">
-        <v>0</v>
-      </c>
-      <c r="J18" s="75">
+      <c r="I18" s="71">
+        <v>0</v>
+      </c>
+      <c r="J18" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="75">
-        <v>0</v>
-      </c>
-      <c r="D19" s="75">
-        <v>0</v>
-      </c>
-      <c r="E19" s="75">
+      <c r="C19" s="71">
+        <v>0</v>
+      </c>
+      <c r="D19" s="71">
+        <v>0</v>
+      </c>
+      <c r="E19" s="71">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="71">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="71">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="71">
         <v>23</v>
       </c>
-      <c r="I19" s="75">
-        <v>1</v>
-      </c>
-      <c r="J19" s="75">
+      <c r="I19" s="71">
+        <v>1</v>
+      </c>
+      <c r="J19" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="75">
-        <v>0</v>
-      </c>
-      <c r="D20" s="75">
-        <v>0</v>
-      </c>
-      <c r="E20" s="75">
+      <c r="C20" s="71">
+        <v>0</v>
+      </c>
+      <c r="D20" s="71">
+        <v>0</v>
+      </c>
+      <c r="E20" s="71">
         <v>0.79800000000000004</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="71">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="71">
         <v>0.74099999999999999</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="71">
         <v>32</v>
       </c>
-      <c r="I20" s="75">
-        <v>0</v>
-      </c>
-      <c r="J20" s="75">
+      <c r="I20" s="71">
+        <v>0</v>
+      </c>
+      <c r="J20" s="71">
         <v>0</v>
       </c>
     </row>
@@ -7290,10 +7380,10 @@
       <c r="B1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="68">
-        <v>1</v>
-      </c>
-      <c r="D1" s="70" t="e">
+      <c r="C1" s="67">
+        <v>1</v>
+      </c>
+      <c r="D1" s="69" t="e">
         <f t="shared" ref="D1:D29" si="0">VLOOKUP(A1,$M$1:$W$10,6,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7321,10 +7411,10 @@
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68">
-        <v>1</v>
-      </c>
-      <c r="D2" s="71" t="e">
+      <c r="C2" s="67">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7352,10 +7442,10 @@
       <c r="B3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="68">
-        <v>1</v>
-      </c>
-      <c r="D3" s="71" t="e">
+      <c r="C3" s="67">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7383,10 +7473,10 @@
       <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="68">
-        <v>1</v>
-      </c>
-      <c r="D4" s="71" t="e">
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7414,10 +7504,10 @@
       <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="68">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71" t="e">
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7445,10 +7535,10 @@
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68">
-        <v>1</v>
-      </c>
-      <c r="D6" s="71" t="e">
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7476,10 +7566,10 @@
       <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="68">
-        <v>1</v>
-      </c>
-      <c r="D7" s="71" t="e">
+      <c r="C7" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7507,10 +7597,10 @@
       <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="68">
-        <v>1</v>
-      </c>
-      <c r="D8" s="69" t="e">
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="68" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7786,10 +7876,10 @@
       <c r="B17" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="68">
-        <v>1</v>
-      </c>
-      <c r="D17" s="70" t="e">
+      <c r="C17" s="67">
+        <v>1</v>
+      </c>
+      <c r="D17" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7817,10 +7907,10 @@
       <c r="B18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="68">
-        <v>1</v>
-      </c>
-      <c r="D18" s="71" t="e">
+      <c r="C18" s="67">
+        <v>1</v>
+      </c>
+      <c r="D18" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7851,7 +7941,7 @@
       <c r="C19" s="30">
         <v>1</v>
       </c>
-      <c r="D19" s="71" t="e">
+      <c r="D19" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -7879,10 +7969,10 @@
       <c r="B20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="68">
-        <v>1</v>
-      </c>
-      <c r="D20" s="71" t="e">
+      <c r="C20" s="67">
+        <v>1</v>
+      </c>
+      <c r="D20" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>

--- a/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика) Session8.xlsx
+++ b/Documents/WebTours Профиль нагрузки_v1.2 (Новая статистика) Session8.xlsx
@@ -19,7 +19,7 @@
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="12" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1808,69 +1808,27 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <fill>
@@ -2631,7 +2589,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2710,25 +2668,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="14">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2811,21 +2769,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="26">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2834,7 +2792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2843,7 +2801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2852,7 +2810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3129,7 +3087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3139,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,8 +3122,8 @@
     <col min="17" max="17" width="7.140625" customWidth="1"/>
     <col min="18" max="18" width="4.140625" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" customWidth="1"/>
     <col min="24" max="24" width="9.7109375" customWidth="1"/>
@@ -3266,7 +3224,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(A2,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G2:G18" si="1">VLOOKUP(A2,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H2" s="20">
@@ -3287,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="O2" s="63">
-        <f t="shared" ref="O2:O4" si="1">P2-N2</f>
+        <f t="shared" ref="O2:O4" si="2">P2-N2</f>
         <v>35</v>
       </c>
       <c r="P2" s="64">
@@ -3300,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="19">
-        <f t="shared" ref="S2:S7" si="2">60/(Q2)</f>
+        <f t="shared" ref="S2:S7" si="3">60/(Q2)</f>
         <v>0.967741935483871</v>
       </c>
       <c r="T2" s="22">
@@ -3311,7 +3269,7 @@
         <v>58</v>
       </c>
       <c r="V2" s="35">
-        <f t="shared" ref="V2:V7" si="3">R2/W$2</f>
+        <f t="shared" ref="V2:V7" si="4">R2/W$2</f>
         <v>0.3</v>
       </c>
       <c r="W2">
@@ -3348,7 +3306,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="4">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H3" s="20">
@@ -3369,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="P3" s="64">
@@ -3382,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="T3" s="22">
@@ -3393,7 +3351,7 @@
         <v>24</v>
       </c>
       <c r="V3" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="X3">
@@ -3426,7 +3384,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H4" s="20">
@@ -3447,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P4" s="64">
@@ -3460,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="T4" s="22">
@@ -3471,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="X4">
@@ -3481,7 +3439,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
@@ -3504,7 +3462,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H5" s="20">
@@ -3538,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="T5" s="22">
@@ -3549,7 +3507,7 @@
         <v>32</v>
       </c>
       <c r="V5" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="X5">
@@ -3582,7 +3540,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H6" s="20">
@@ -3616,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="T6" s="22">
@@ -3627,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="V6" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="X6">
@@ -3660,7 +3618,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H7" s="20">
@@ -3694,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="T7" s="22">
@@ -3705,7 +3663,7 @@
         <v>16</v>
       </c>
       <c r="V7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="X7">
@@ -3738,7 +3696,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H8" s="20">
@@ -3780,7 +3738,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H9" s="20">
@@ -3818,7 +3776,7 @@
         <v>0.6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H10" s="20">
@@ -3855,7 +3813,7 @@
         <v>0.6</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H11" s="20">
@@ -3892,7 +3850,7 @@
         <v>0.6</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H12" s="20">
@@ -3929,7 +3887,7 @@
         <v>0.6</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H13" s="20">
@@ -3966,7 +3924,7 @@
         <v>0.8</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H14" s="20">
@@ -4003,7 +3961,7 @@
         <v>0.8</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H15" s="20">
@@ -4034,7 +3992,7 @@
         <v>0.8</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H16" s="20">
@@ -4065,7 +4023,7 @@
         <v>0.8</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H17" s="20">
@@ -4096,7 +4054,7 @@
         <v>0.8</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H18" s="20">
@@ -4150,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E17:E30" si="13">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E20:E30" si="13">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
         <v>75</v>
       </c>
       <c r="F20" s="21">
@@ -6087,7 +6045,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
